--- a/docs/RapportDeTest.xlsx
+++ b/docs/RapportDeTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19845" windowHeight="12435"/>
+    <workbookView xWindow="7635" yWindow="0" windowWidth="16335" windowHeight="10575"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>N° Test</t>
   </si>
@@ -87,25 +87,67 @@
     <t>OK</t>
   </si>
   <si>
-    <t>Redirection à la page d'acceuil</t>
-  </si>
-  <si>
-    <t>Impossible de de valider sans toutes les données</t>
-  </si>
-  <si>
-    <t>Les données actuelles sont affichées, Les données sont modifiées apres la validation</t>
-  </si>
-  <si>
-    <t>Toutes les données sont affichées correctement</t>
-  </si>
-  <si>
-    <t>Toutes les console/jeux sont affichés</t>
-  </si>
-  <si>
-    <t>Les valeurs affichées correspondent à la valeur recherchée</t>
-  </si>
-  <si>
-    <t>La console/ le jeu est supprimé ainsi que toutes les associations</t>
+    <t>T0008</t>
+  </si>
+  <si>
+    <t>T0009</t>
+  </si>
+  <si>
+    <t>T0010</t>
+  </si>
+  <si>
+    <t>T0011</t>
+  </si>
+  <si>
+    <t>T0012</t>
+  </si>
+  <si>
+    <t>T0013</t>
+  </si>
+  <si>
+    <t>FA0008</t>
+  </si>
+  <si>
+    <t>FA0009</t>
+  </si>
+  <si>
+    <t>FA0010</t>
+  </si>
+  <si>
+    <t>FA0011</t>
+  </si>
+  <si>
+    <t>FA0012</t>
+  </si>
+  <si>
+    <t>FA0013</t>
+  </si>
+  <si>
+    <t>Toutes les données sont affichées</t>
+  </si>
+  <si>
+    <t>Toutes les recettes sont affichées</t>
+  </si>
+  <si>
+    <t>T0014</t>
+  </si>
+  <si>
+    <t>FA0014</t>
+  </si>
+  <si>
+    <t>Les recettes affichées correpondent à la recherche</t>
+  </si>
+  <si>
+    <t>Les recettes sont affiché selon le tri effectué</t>
+  </si>
+  <si>
+    <t>La recette et son contenu sont ajouté avec une image par défaut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La nouvelle image est uploadée, l'ancienne image est supprimée uniquement si </t>
+  </si>
+  <si>
+    <t>La recette, le contenu de la recette, les commentaire sont supprimés</t>
   </si>
 </sst>
 </file>
@@ -134,7 +176,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,8 +195,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -253,72 +301,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -327,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -339,15 +329,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -355,9 +336,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -370,38 +348,54 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -715,7 +709,7 @@
   <dimension ref="A2:G22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,234 +723,294 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:7" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8">
-        <v>42117</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="B5" s="5">
+        <v>42136</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="16">
+        <v>42136</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>42136</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="16">
+        <v>42136</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>42136</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="16">
+        <v>42136</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>42136</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="16">
+        <v>42136</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11">
-        <v>42117</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>42136</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8">
-        <v>42117</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="11">
-        <v>42117</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8">
-        <v>42117</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="11">
-        <v>42117</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="19">
-        <v>42117</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="G13" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="B14" s="16">
+        <v>42136</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="B15" s="5">
+        <v>42136</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="G15" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="B16" s="16">
+        <v>42136</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="B17" s="5">
+        <v>42136</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="G17" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B18" s="16">
+        <v>42136</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="17"/>
+    </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
@@ -971,7 +1025,12 @@
     <mergeCell ref="C2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F17">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"KO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/RapportDeTest.xlsx
+++ b/docs/RapportDeTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
   <si>
     <t>N° Test</t>
   </si>
@@ -123,38 +123,113 @@
     <t>FA0013</t>
   </si>
   <si>
-    <t>Toutes les données sont affichées</t>
-  </si>
-  <si>
-    <t>Toutes les recettes sont affichées</t>
-  </si>
-  <si>
     <t>T0014</t>
   </si>
   <si>
     <t>FA0014</t>
   </si>
   <si>
-    <t>Les recettes affichées correpondent à la recherche</t>
-  </si>
-  <si>
-    <t>Les recettes sont affiché selon le tri effectué</t>
-  </si>
-  <si>
-    <t>La recette et son contenu sont ajouté avec une image par défaut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La nouvelle image est uploadée, l'ancienne image est supprimée uniquement si </t>
-  </si>
-  <si>
-    <t>La recette, le contenu de la recette, les commentaire sont supprimés</t>
+    <t>T0015</t>
+  </si>
+  <si>
+    <t>T0016</t>
+  </si>
+  <si>
+    <t>T0017</t>
+  </si>
+  <si>
+    <t>T0018</t>
+  </si>
+  <si>
+    <t>T0019</t>
+  </si>
+  <si>
+    <t>T0020</t>
+  </si>
+  <si>
+    <t>FA0015</t>
+  </si>
+  <si>
+    <t>FA0016</t>
+  </si>
+  <si>
+    <t>FA0017</t>
+  </si>
+  <si>
+    <t>FA0018</t>
+  </si>
+  <si>
+    <t>FA0019</t>
+  </si>
+  <si>
+    <t>FA0020</t>
+  </si>
+  <si>
+    <t>Toutes les information de la recette sont affichées</t>
+  </si>
+  <si>
+    <t>Toutes les recettes sont affichés</t>
+  </si>
+  <si>
+    <t>Les recette affichées correspondent à la recherhe effectuée</t>
+  </si>
+  <si>
+    <t>L'affiche des recettes est trié</t>
+  </si>
+  <si>
+    <t>La recette est ajoutée avec une image par défaut</t>
+  </si>
+  <si>
+    <t>La recette est ajoutée</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>L'utilisateur est redirigé à la page d'accueil</t>
+  </si>
+  <si>
+    <t>Un message d'erreur informant l'utilisateur qu'il à saisi des informations incorrect s'affiche</t>
+  </si>
+  <si>
+    <t>Un message d'erreur informant l'utilisateur qu'il doit entrer un titre s'affiche</t>
+  </si>
+  <si>
+    <t>Un message d'erreur informant l'utilisateur qu'il doit entrer une préparation s'affiche</t>
+  </si>
+  <si>
+    <t>Un message d'erreur informant l'utilisateur que pseudo est déjà utilisé s'affiche</t>
+  </si>
+  <si>
+    <t>Un message d'erreur informant l'utilisateur que l'adresse email est déjà utilisée s'affiche</t>
+  </si>
+  <si>
+    <t>Le commentaire est ajouté et la note est définie à vide</t>
+  </si>
+  <si>
+    <t>L'utilisateur est supprimé, ses commentaires sont supprimé, ses recettes sont gardées</t>
+  </si>
+  <si>
+    <t>L'utilisateur est redirigé à la page des recettes</t>
+  </si>
+  <si>
+    <t>Un message d'erreur informant l'utilisateur que le mot de passe est mal confirmer est affiché</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un message d'erreur informant l'utilisateur qu'il doit commenter la recette si il veut la noter est affiché </t>
+  </si>
+  <si>
+    <t>Un message d'erreur informant l'utilisateur qu'il a mal entrer son mot de passe est affiché</t>
+  </si>
+  <si>
+    <t>Un message d'erreur informant l'utilisateur que pseudo/ l'adresse email est déjà utilisé s'affiche</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,12 +243,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -202,7 +271,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -313,18 +382,120 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -351,41 +522,59 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -706,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G22"/>
+  <dimension ref="A2:I30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,320 +906,490 @@
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="66.140625" customWidth="1"/>
+    <col min="5" max="5" width="83.7109375" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="4" customWidth="1"/>
+    <col min="9" max="9" width="59.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C2" s="15" t="s">
+    <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:9" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
-        <v>42136</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="6" t="s">
+    <row r="5" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>42136</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="13">
+        <v>42136</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>42136</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="13">
+        <v>42136</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>42136</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="13">
+        <v>42136</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>42136</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="13">
+        <v>42136</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>42136</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="15">
+        <v>42136</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3">
+        <v>42136</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="13">
+        <v>42136</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>42136</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="13">
+        <v>42136</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16">
-        <v>42136</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="E18" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5">
-        <v>42136</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="6" t="s">
+    </row>
+    <row r="19" spans="2:7" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>42136</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="13">
+        <v>42136</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>42136</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16">
-        <v>42136</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="E21" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="13">
+        <v>42136</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
-        <v>42136</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="E22" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>42136</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="16">
-        <v>42136</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="E23" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="20">
+        <v>42136</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5">
-        <v>42136</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="16">
-        <v>42136</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5">
-        <v>42136</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="16">
-        <v>42136</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="5">
-        <v>42136</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="16">
-        <v>42136</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="5">
-        <v>42136</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="16">
-        <v>42136</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="18"/>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="17"/>
-    </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="1"/>
+      <c r="E24" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <conditionalFormatting sqref="F5:F17">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+  <conditionalFormatting sqref="F5:F14">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="F15:F24">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
   </conditionalFormatting>
